--- a/pasos_en_R/ensamble_parametros/summary_populations.xlsx
+++ b/pasos_en_R/ensamble_parametros/summary_populations.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comunidadunammx-my.sharepoint.com/personal/omar_santiago_c_2000_comunidad_unam_mx/Documents/IND_PNDL.2/ensamble/ensamble_parametros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gih\Genomica_del_paisaje\pasos_en_R\ensamble_parametros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="11_AD4D2F04E46CFB4ACB3E20D11596F82C683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795317F8-052A-41D7-ADD9-90093D8668E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AEC86F-9E91-424D-B495-04EC01A03808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27330" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen_populations" sheetId="1" r:id="rId1"/>
     <sheet name="snp_error" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja1!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="91">
   <si>
     <t># Variant positions</t>
   </si>
@@ -182,6 +186,135 @@
   </si>
   <si>
     <t>interplaca</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>placa</t>
+  </si>
+  <si>
+    <t>B103_N11P34</t>
+  </si>
+  <si>
+    <t>B103r_N11P34</t>
+  </si>
+  <si>
+    <t>K11_N4P1</t>
+  </si>
+  <si>
+    <t>K11r_N4P1</t>
+  </si>
+  <si>
+    <t>PP4_NNAP1</t>
+  </si>
+  <si>
+    <t>PP4r_NNAP1</t>
+  </si>
+  <si>
+    <t>M2_N5P9</t>
+  </si>
+  <si>
+    <t>M2r_N5P9</t>
+  </si>
+  <si>
+    <t>AMP08_NNAPNA</t>
+  </si>
+  <si>
+    <t>AMP08r_NNAPNA</t>
+  </si>
+  <si>
+    <t>AMP05_NNAPNA</t>
+  </si>
+  <si>
+    <t>AMP05r_NNAPNA</t>
+  </si>
+  <si>
+    <t>CA10_N04TAF</t>
+  </si>
+  <si>
+    <t>CA10r_N04TAF</t>
+  </si>
+  <si>
+    <t>F101_N9P32</t>
+  </si>
+  <si>
+    <t>F101r_N9P32</t>
+  </si>
+  <si>
+    <t>CC26_N04TAF</t>
+  </si>
+  <si>
+    <t>CC26r_N04TAF</t>
+  </si>
+  <si>
+    <t>placa1</t>
+  </si>
+  <si>
+    <t>placa2</t>
+  </si>
+  <si>
+    <t>placa3</t>
+  </si>
+  <si>
+    <t>placa4</t>
+  </si>
+  <si>
+    <t>A10_N07P06</t>
+  </si>
+  <si>
+    <t>B113_N05P34</t>
+  </si>
+  <si>
+    <t>D70_N09P19</t>
+  </si>
+  <si>
+    <t>E89_N16P29</t>
+  </si>
+  <si>
+    <t>K118_NNAP45</t>
+  </si>
+  <si>
+    <t>A122_N03P40</t>
+  </si>
+  <si>
+    <t>B84_NNAP24</t>
+  </si>
+  <si>
+    <t>C36_N06P12</t>
+  </si>
+  <si>
+    <t>D163_N18P43</t>
+  </si>
+  <si>
+    <t>E166NNAP38</t>
+  </si>
+  <si>
+    <t>A131_N10P46</t>
+  </si>
+  <si>
+    <t>C17_N5P6</t>
+  </si>
+  <si>
+    <t>D168_N19P47</t>
+  </si>
+  <si>
+    <t>E66_N14P20</t>
+  </si>
+  <si>
+    <t>F100_N10P32</t>
+  </si>
+  <si>
+    <t>A27_N8P9</t>
+  </si>
+  <si>
+    <t>D142_N14P38</t>
+  </si>
+  <si>
+    <t>E47_N11P11</t>
+  </si>
+  <si>
+    <t>F108_N8P32</t>
   </si>
 </sst>
 </file>
@@ -211,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,12 +376,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,10 +398,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:F39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +713,7 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
@@ -586,7 +722,7 @@
       <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M3" t="s">
@@ -595,7 +731,7 @@
       <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P3" t="s">
@@ -604,7 +740,7 @@
       <c r="Q3" t="s">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="S3" t="s">
@@ -613,7 +749,7 @@
       <c r="T3" t="s">
         <v>5</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="V3" t="s">
@@ -622,7 +758,7 @@
       <c r="W3" t="s">
         <v>5</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Y3" t="s">
@@ -640,76 +776,76 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>15.7225</v>
+        <v>15.582190000000001</v>
       </c>
       <c r="D4">
-        <v>4.3646900000000004</v>
+        <v>4.4960100000000001</v>
       </c>
       <c r="E4">
-        <v>1.2460000000000001E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="F4">
-        <v>0.84736</v>
+        <v>0.83772000000000002</v>
       </c>
       <c r="G4">
-        <v>1.5699999999999999E-2</v>
+        <v>1.6650000000000002E-2</v>
       </c>
       <c r="H4">
-        <v>7.5000000000000002E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="I4">
-        <v>0.23188</v>
+        <v>0.24312</v>
       </c>
       <c r="J4">
-        <v>4.3139999999999998E-2</v>
+        <v>4.7210000000000002E-2</v>
       </c>
       <c r="K4">
-        <v>1.24E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="L4">
-        <v>0.76812000000000002</v>
+        <v>0.75688</v>
       </c>
       <c r="M4">
-        <v>4.3139999999999998E-2</v>
+        <v>4.7210000000000002E-2</v>
       </c>
       <c r="N4">
-        <v>1.24E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="O4">
-        <v>0.22728000000000001</v>
+        <v>0.23859</v>
       </c>
       <c r="P4">
-        <v>1.728E-2</v>
+        <v>1.805E-2</v>
       </c>
       <c r="Q4">
-        <v>7.7999999999999999E-4</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="R4">
-        <v>0.77271999999999996</v>
+        <v>0.76141000000000003</v>
       </c>
       <c r="S4">
-        <v>1.728E-2</v>
+        <v>1.805E-2</v>
       </c>
       <c r="T4">
-        <v>7.7999999999999999E-4</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="U4">
-        <v>0.23505999999999999</v>
+        <v>0.24682000000000001</v>
       </c>
       <c r="V4">
-        <v>1.8550000000000001E-2</v>
+        <v>1.9369999999999998E-2</v>
       </c>
       <c r="W4">
-        <v>8.0999999999999996E-4</v>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="X4">
-        <v>3.2969999999999999E-2</v>
+        <v>4.0849999999999997E-2</v>
       </c>
       <c r="Y4">
-        <v>0.14293</v>
+        <v>0.15851000000000001</v>
       </c>
       <c r="Z4">
-        <v>1.2460000000000001E-2</v>
+        <v>1.34E-2</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -754,7 +890,7 @@
       <c r="L6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N6" t="s">
@@ -763,7 +899,7 @@
       <c r="O6" t="s">
         <v>5</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q6" t="s">
@@ -772,7 +908,7 @@
       <c r="R6" t="s">
         <v>5</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T6" t="s">
@@ -781,7 +917,7 @@
       <c r="U6" t="s">
         <v>5</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W6" t="s">
@@ -799,7 +935,7 @@
       <c r="AA6" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AC6" t="s">
@@ -817,88 +953,88 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5071454</v>
+        <v>4998419</v>
       </c>
       <c r="D7">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="E7">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="F7">
-        <v>0.55437999999999998</v>
+        <v>0.50105999999999995</v>
       </c>
       <c r="G7">
-        <v>15.72466</v>
+        <v>15.60872</v>
       </c>
       <c r="H7">
-        <v>4.6761600000000003</v>
+        <v>4.6565300000000001</v>
       </c>
       <c r="I7">
-        <v>9.6000000000000002E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="J7">
-        <v>0.99914999999999998</v>
+        <v>0.99919000000000002</v>
       </c>
       <c r="K7">
-        <v>2.2000000000000001E-4</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="L7">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="M7">
-        <v>1.2899999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="N7">
-        <v>5.4000000000000001E-4</v>
+        <v>5.2999999999999998E-4</v>
       </c>
       <c r="O7">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="P7">
-        <v>0.99870999999999999</v>
+        <v>0.99878</v>
       </c>
       <c r="Q7">
-        <v>5.4000000000000001E-4</v>
+        <v>5.2999999999999998E-4</v>
       </c>
       <c r="R7">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="S7">
-        <v>1.2600000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="T7">
-        <v>3.8000000000000002E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="U7">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V7">
-        <v>0.99873999999999996</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="W7">
-        <v>3.8000000000000002E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="X7">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y7">
-        <v>1.2999999999999999E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="Z7">
-        <v>4.0999999999999999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AA7">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="AB7">
-        <v>1.8000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AC7">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="AD7">
-        <v>9.6000000000000002E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -981,7 +1117,7 @@
       <c r="W11" t="s">
         <v>5</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Y11" t="s">
@@ -999,76 +1135,76 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.69192</v>
+        <v>15.52816</v>
       </c>
       <c r="D12">
-        <v>4.1757400000000002</v>
+        <v>4.2721200000000001</v>
       </c>
       <c r="E12">
-        <v>1.4760000000000001E-2</v>
+        <v>1.6129999999999999E-2</v>
       </c>
       <c r="F12">
-        <v>0.84147000000000005</v>
+        <v>0.82874999999999999</v>
       </c>
       <c r="G12">
-        <v>1.7309999999999999E-2</v>
+        <v>1.8550000000000001E-2</v>
       </c>
       <c r="H12">
-        <v>9.5E-4</v>
+        <v>1.06E-3</v>
       </c>
       <c r="I12">
-        <v>0.24767</v>
+        <v>0.26347999999999999</v>
       </c>
       <c r="J12">
-        <v>4.8959999999999997E-2</v>
+        <v>5.4170000000000003E-2</v>
       </c>
       <c r="K12">
-        <v>1.6000000000000001E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="L12">
-        <v>0.75233000000000005</v>
+        <v>0.73651999999999995</v>
       </c>
       <c r="M12">
-        <v>4.8959999999999997E-2</v>
+        <v>5.4170000000000003E-2</v>
       </c>
       <c r="N12">
-        <v>1.6000000000000001E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="O12">
-        <v>0.23218</v>
+        <v>0.24675</v>
       </c>
       <c r="P12">
-        <v>1.8339999999999999E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="Q12">
-        <v>9.7999999999999997E-4</v>
+        <v>1.08E-3</v>
       </c>
       <c r="R12">
-        <v>0.76781999999999995</v>
+        <v>0.75324999999999998</v>
       </c>
       <c r="S12">
-        <v>1.8339999999999999E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="T12">
-        <v>9.7999999999999997E-4</v>
+        <v>1.08E-3</v>
       </c>
       <c r="U12">
-        <v>0.24013999999999999</v>
+        <v>0.25525999999999999</v>
       </c>
       <c r="V12">
-        <v>1.968E-2</v>
+        <v>2.0709999999999999E-2</v>
       </c>
       <c r="W12">
-        <v>1.01E-3</v>
+        <v>1.1199999999999999E-3</v>
       </c>
       <c r="X12">
-        <v>-2.2000000000000001E-4</v>
+        <v>5.7200000000000003E-3</v>
       </c>
       <c r="Y12">
-        <v>0.13411000000000001</v>
+        <v>0.15315000000000001</v>
       </c>
       <c r="Z12">
-        <v>1.4760000000000001E-2</v>
+        <v>1.6129999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -1113,7 +1249,7 @@
       <c r="L14" t="s">
         <v>5</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N14" t="s">
@@ -1176,28 +1312,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3345734</v>
+        <v>3284009</v>
       </c>
       <c r="D15">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="E15">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="F15">
-        <v>0.57326999999999995</v>
+        <v>0.50009000000000003</v>
       </c>
       <c r="G15">
-        <v>15.721120000000001</v>
+        <v>15.565770000000001</v>
       </c>
       <c r="H15">
-        <v>4.5868000000000002</v>
+        <v>4.52515</v>
       </c>
       <c r="I15">
         <v>1.17E-3</v>
       </c>
       <c r="J15">
-        <v>0.99909000000000003</v>
+        <v>0.99914000000000003</v>
       </c>
       <c r="K15">
         <v>2.4000000000000001E-4</v>
@@ -1206,52 +1342,52 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="M15">
-        <v>1.42E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="N15">
-        <v>6.3000000000000003E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="O15">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="P15">
-        <v>0.99858000000000002</v>
+        <v>0.99868000000000001</v>
       </c>
       <c r="Q15">
-        <v>6.3000000000000003E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="R15">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="S15">
-        <v>1.33E-3</v>
+        <v>1.23E-3</v>
       </c>
       <c r="T15">
-        <v>4.0999999999999999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="U15">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V15">
-        <v>0.99866999999999995</v>
+        <v>0.99877000000000005</v>
       </c>
       <c r="W15">
-        <v>4.0999999999999999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="X15">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y15">
-        <v>1.3799999999999999E-3</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="Z15">
-        <v>4.4000000000000002E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="AA15">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="AC15">
         <v>7.6999999999999996E-4</v>
@@ -1340,7 +1476,7 @@
       <c r="W19" t="s">
         <v>5</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Y19" t="s">
@@ -1358,76 +1494,76 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.537649999999999</v>
+        <v>15.302849999999999</v>
       </c>
       <c r="D20">
-        <v>4.1309300000000002</v>
+        <v>4.2437699999999996</v>
       </c>
       <c r="E20">
-        <v>1.7270000000000001E-2</v>
+        <v>1.9189999999999999E-2</v>
       </c>
       <c r="F20">
-        <v>0.84045999999999998</v>
+        <v>0.82360999999999995</v>
       </c>
       <c r="G20">
-        <v>1.7649999999999999E-2</v>
+        <v>1.941E-2</v>
       </c>
       <c r="H20">
-        <v>1.1299999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="I20">
-        <v>0.25511</v>
+        <v>0.27683999999999997</v>
       </c>
       <c r="J20">
-        <v>5.1799999999999999E-2</v>
+        <v>5.8950000000000002E-2</v>
       </c>
       <c r="K20">
-        <v>1.9300000000000001E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="L20">
-        <v>0.74489000000000005</v>
+        <v>0.72316000000000003</v>
       </c>
       <c r="M20">
-        <v>5.1799999999999999E-2</v>
+        <v>5.8950000000000002E-2</v>
       </c>
       <c r="N20">
-        <v>1.9300000000000001E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="O20">
-        <v>0.23288</v>
+        <v>0.25173000000000001</v>
       </c>
       <c r="P20">
-        <v>1.8419999999999999E-2</v>
+        <v>1.9730000000000001E-2</v>
       </c>
       <c r="Q20">
-        <v>1.15E-3</v>
+        <v>1.31E-3</v>
       </c>
       <c r="R20">
-        <v>0.76712000000000002</v>
+        <v>0.74826999999999999</v>
       </c>
       <c r="S20">
-        <v>1.8419999999999999E-2</v>
+        <v>1.9730000000000001E-2</v>
       </c>
       <c r="T20">
-        <v>1.15E-3</v>
+        <v>1.31E-3</v>
       </c>
       <c r="U20">
-        <v>0.24093000000000001</v>
+        <v>0.26052999999999998</v>
       </c>
       <c r="V20">
-        <v>1.9779999999999999E-2</v>
+        <v>2.1180000000000001E-2</v>
       </c>
       <c r="W20">
-        <v>1.1900000000000001E-3</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="X20">
-        <v>-1.7680000000000001E-2</v>
+        <v>-1.372E-2</v>
       </c>
       <c r="Y20">
-        <v>0.13037000000000001</v>
+        <v>0.15415000000000001</v>
       </c>
       <c r="Z20">
-        <v>1.7270000000000001E-2</v>
+        <v>1.9189999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -1472,7 +1608,7 @@
       <c r="L22" t="s">
         <v>5</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N22" t="s">
@@ -1535,28 +1671,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2409056</v>
+        <v>2352302</v>
       </c>
       <c r="D23">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="E23">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="F23">
-        <v>0.57504</v>
+        <v>0.49003000000000002</v>
       </c>
       <c r="G23">
-        <v>15.60844</v>
+        <v>15.417120000000001</v>
       </c>
       <c r="H23">
-        <v>4.5097300000000002</v>
+        <v>4.4191599999999998</v>
       </c>
       <c r="I23">
         <v>1.3699999999999999E-3</v>
       </c>
       <c r="J23">
-        <v>0.99907999999999997</v>
+        <v>0.99914000000000003</v>
       </c>
       <c r="K23">
         <v>2.5000000000000001E-4</v>
@@ -1565,55 +1701,55 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="M23">
-        <v>1.47E-3</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="N23">
-        <v>6.7000000000000002E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="O23">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="P23">
-        <v>0.99853000000000003</v>
+        <v>0.99863999999999997</v>
       </c>
       <c r="Q23">
-        <v>6.7000000000000002E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="R23">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="S23">
-        <v>1.34E-3</v>
+        <v>1.23E-3</v>
       </c>
       <c r="T23">
-        <v>4.2000000000000002E-4</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="U23">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V23">
-        <v>0.99865999999999999</v>
+        <v>0.99877000000000005</v>
       </c>
       <c r="W23">
-        <v>4.2000000000000002E-4</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="X23">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y23">
-        <v>1.39E-3</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="Z23">
-        <v>4.4999999999999999E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="AA23">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="AB23">
-        <v>-1E-4</v>
+        <v>-6.9999999999999994E-5</v>
       </c>
       <c r="AC23">
-        <v>7.5000000000000002E-4</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="AD23">
         <v>1.3699999999999999E-3</v>
@@ -1699,7 +1835,7 @@
       <c r="W27" t="s">
         <v>5</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Y27" t="s">
@@ -1717,76 +1853,76 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>15.73414</v>
+        <v>15.60688</v>
       </c>
       <c r="D28">
-        <v>4.3384900000000002</v>
+        <v>4.4592499999999999</v>
       </c>
       <c r="E28">
-        <v>1.205E-2</v>
+        <v>1.286E-2</v>
       </c>
       <c r="F28">
-        <v>0.84038999999999997</v>
+        <v>0.83101999999999998</v>
       </c>
       <c r="G28">
-        <v>1.7080000000000001E-2</v>
+        <v>1.797E-2</v>
       </c>
       <c r="H28">
-        <v>7.6000000000000004E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="I28">
-        <v>0.24779000000000001</v>
+        <v>0.25968999999999998</v>
       </c>
       <c r="J28">
-        <v>4.8989999999999999E-2</v>
+        <v>5.2760000000000001E-2</v>
       </c>
       <c r="K28">
-        <v>1.2800000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="L28">
-        <v>0.75221000000000005</v>
+        <v>0.74031000000000002</v>
       </c>
       <c r="M28">
-        <v>4.8989999999999999E-2</v>
+        <v>5.2760000000000001E-2</v>
       </c>
       <c r="N28">
-        <v>1.2800000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="O28">
-        <v>0.23411000000000001</v>
+        <v>0.24492</v>
       </c>
       <c r="P28">
-        <v>1.822E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="Q28">
-        <v>7.7999999999999999E-4</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="R28">
-        <v>0.76588999999999996</v>
+        <v>0.75507999999999997</v>
       </c>
       <c r="S28">
-        <v>1.822E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="T28">
-        <v>7.7999999999999999E-4</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="U28">
-        <v>0.24212</v>
+        <v>0.25335000000000002</v>
       </c>
       <c r="V28">
-        <v>1.9560000000000001E-2</v>
+        <v>2.0279999999999999E-2</v>
       </c>
       <c r="W28">
-        <v>8.0999999999999996E-4</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="X28">
-        <v>8.2299999999999995E-3</v>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="Y28">
-        <v>0.14054</v>
+        <v>0.1532</v>
       </c>
       <c r="Z28">
-        <v>1.205E-2</v>
+        <v>1.286E-2</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -1831,7 +1967,7 @@
       <c r="L30" t="s">
         <v>5</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N30" t="s">
@@ -1894,28 +2030,28 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4952423</v>
+        <v>4888163</v>
       </c>
       <c r="D31">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="E31">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="F31">
-        <v>0.60363999999999995</v>
+        <v>0.55181999999999998</v>
       </c>
       <c r="G31">
-        <v>15.735749999999999</v>
+        <v>15.62279</v>
       </c>
       <c r="H31">
-        <v>4.6502299999999996</v>
+        <v>4.6320899999999998</v>
       </c>
       <c r="I31">
         <v>9.7000000000000005E-4</v>
       </c>
       <c r="J31">
-        <v>0.99904000000000004</v>
+        <v>0.99907000000000001</v>
       </c>
       <c r="K31">
         <v>2.5999999999999998E-4</v>
@@ -1924,7 +2060,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="M31">
-        <v>1.5E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="N31">
         <v>6.6E-4</v>
@@ -1933,7 +2069,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="P31">
-        <v>0.99850000000000005</v>
+        <v>0.99856999999999996</v>
       </c>
       <c r="Q31">
         <v>6.6E-4</v>
@@ -1942,34 +2078,34 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="S31">
-        <v>1.41E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="T31">
-        <v>4.4000000000000002E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="U31">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V31">
-        <v>0.99858999999999998</v>
+        <v>0.99865000000000004</v>
       </c>
       <c r="W31">
-        <v>4.4000000000000002E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="X31">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y31">
-        <v>1.4599999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="Z31">
-        <v>4.6999999999999999E-4</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="AA31">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="AB31">
-        <v>5.0000000000000002E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="AC31">
         <v>8.4999999999999995E-4</v>
@@ -2058,7 +2194,7 @@
       <c r="W35" t="s">
         <v>5</v>
       </c>
-      <c r="X35" t="s">
+      <c r="X35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Y35" t="s">
@@ -2076,76 +2212,76 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>15.67571</v>
+        <v>15.51154</v>
       </c>
       <c r="D36">
-        <v>4.2296199999999997</v>
+        <v>4.3262700000000001</v>
       </c>
       <c r="E36">
-        <v>1.4460000000000001E-2</v>
+        <v>1.5650000000000001E-2</v>
       </c>
       <c r="F36">
-        <v>0.83621999999999996</v>
+        <v>0.82377</v>
       </c>
       <c r="G36">
-        <v>1.822E-2</v>
+        <v>1.9380000000000001E-2</v>
       </c>
       <c r="H36">
-        <v>9.5E-4</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="I36">
-        <v>0.25891999999999998</v>
+        <v>0.27483999999999997</v>
       </c>
       <c r="J36">
-        <v>5.3330000000000002E-2</v>
+        <v>5.8319999999999997E-2</v>
       </c>
       <c r="K36">
-        <v>1.6199999999999999E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="L36">
-        <v>0.74107999999999996</v>
+        <v>0.72516000000000003</v>
       </c>
       <c r="M36">
-        <v>5.3330000000000002E-2</v>
+        <v>5.8319999999999997E-2</v>
       </c>
       <c r="N36">
-        <v>1.6199999999999999E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="O36">
-        <v>0.23749000000000001</v>
+        <v>0.25158999999999998</v>
       </c>
       <c r="P36">
-        <v>1.8939999999999999E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="Q36">
-        <v>9.7000000000000005E-4</v>
+        <v>1.06E-3</v>
       </c>
       <c r="R36">
-        <v>0.76251000000000002</v>
+        <v>0.74841000000000002</v>
       </c>
       <c r="S36">
-        <v>1.8939999999999999E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="T36">
-        <v>9.7000000000000005E-4</v>
+        <v>1.06E-3</v>
       </c>
       <c r="U36">
-        <v>0.24562999999999999</v>
+        <v>0.26028000000000001</v>
       </c>
       <c r="V36">
-        <v>2.0320000000000001E-2</v>
+        <v>2.1250000000000002E-2</v>
       </c>
       <c r="W36">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="X36">
-        <v>-1.524E-2</v>
+        <v>-1.163E-2</v>
       </c>
       <c r="Y36">
-        <v>0.13592000000000001</v>
+        <v>0.15365999999999999</v>
       </c>
       <c r="Z36">
-        <v>1.4460000000000001E-2</v>
+        <v>1.5650000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
@@ -2190,7 +2326,7 @@
       <c r="L38" t="s">
         <v>5</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N38" t="s">
@@ -2253,28 +2389,28 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>3267905</v>
+        <v>3211102</v>
       </c>
       <c r="D39">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="E39">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="F39">
-        <v>0.61902000000000001</v>
+        <v>0.5504</v>
       </c>
       <c r="G39">
-        <v>15.72847</v>
+        <v>15.57479</v>
       </c>
       <c r="H39">
-        <v>4.5691100000000002</v>
+        <v>4.5125700000000002</v>
       </c>
       <c r="I39">
-        <v>1.1800000000000001E-3</v>
+        <v>1.1900000000000001E-3</v>
       </c>
       <c r="J39">
-        <v>0.99899000000000004</v>
+        <v>0.99902999999999997</v>
       </c>
       <c r="K39">
         <v>2.7999999999999998E-4</v>
@@ -2283,25 +2419,25 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="M39">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="N39">
-        <v>7.3999999999999999E-4</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="O39">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="P39">
-        <v>0.99839999999999995</v>
+        <v>0.99848999999999999</v>
       </c>
       <c r="Q39">
-        <v>7.3999999999999999E-4</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="R39">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="S39">
-        <v>1.47E-3</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="T39">
         <v>4.6000000000000001E-4</v>
@@ -2310,7 +2446,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V39">
-        <v>0.99853000000000003</v>
+        <v>0.99861999999999995</v>
       </c>
       <c r="W39">
         <v>4.6000000000000001E-4</v>
@@ -2319,22 +2455,22 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y39">
-        <v>1.5200000000000001E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="Z39">
-        <v>5.0000000000000001E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="AA39">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="AB39">
-        <v>-9.0000000000000006E-5</v>
+        <v>-6.0000000000000002E-5</v>
       </c>
       <c r="AC39">
-        <v>8.4000000000000003E-4</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="AD39">
-        <v>1.1800000000000001E-3</v>
+        <v>1.1900000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2483,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2510,7 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>2.84021350570491E-2</v>
+        <v>3.3483398987056802E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,7 +2521,7 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>2.81140704869518E-2</v>
+        <v>3.07402120717781E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,7 +2532,7 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>2.84532589196731E-2</v>
+        <v>3.2808474091039201E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,7 +2543,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>2.37929765749561E-2</v>
+        <v>2.5890868596882E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,7 +2554,7 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.100385291900494</v>
+        <v>3.1381553769613497E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,7 +2565,7 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>5.2380766376313399E-2</v>
+        <v>1.20184899845917E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,7 +2576,7 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>9.95697602950215E-2</v>
+        <v>4.1145431908460303E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,7 +2587,7 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>3.11585019446751E-2</v>
+        <v>3.5609489232605603E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,7 +2598,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>2.5615184345343101E-2</v>
+        <v>2.84777027669487E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,7 +2609,7 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>2.72998394127093E-2</v>
+        <v>3.0659278056864699E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,7 +2620,7 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>2.5664681707623899E-2</v>
+        <v>2.8484136310223299E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2495,7 +2631,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>2.4887819771476201E-2</v>
+        <v>2.7684739376177499E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,7 +2642,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>2.2880474557990801E-2</v>
+        <v>2.46116776386558E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,7 +2653,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>9.2103187125276098E-2</v>
+        <v>3.0557779556978901E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,7 +2664,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>4.7487474211612098E-2</v>
+        <v>1.2532358137814901E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2539,7 +2675,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>9.1370068092915396E-2</v>
+        <v>3.9713577526852097E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2550,7 +2686,7 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>3.1088507915675499E-2</v>
+        <v>3.4238380119650302E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2561,7 +2697,7 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>2.5668406897642802E-2</v>
+        <v>2.6773112208891999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,7 +2708,7 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>1.9504060324826E-2</v>
+        <v>2.2679874869655899E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2583,7 +2719,7 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>1.8957654723127E-2</v>
+        <v>2.1242082496524001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2594,7 +2730,7 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>1.9365933901600099E-2</v>
+        <v>2.25867168593708E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2605,7 +2741,7 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>1.74095928024771E-2</v>
+        <v>1.9009573662097899E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2616,7 +2752,7 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>0.12115466943917801</v>
+        <v>2.9418221734357899E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,7 +2763,7 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>6.0253396778077201E-2</v>
+        <v>8.7256493506493501E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,7 +2774,7 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>0.108116883116883</v>
+        <v>2.87076586867985E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2649,7 +2785,7 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>2.0295318881558298E-2</v>
+        <v>2.29483847010769E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,7 +2796,7 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>1.6516701590040699E-2</v>
+        <v>1.9516796053108899E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,7 +2807,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.73282706247843E-2</v>
+        <v>1.8915204914719898E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,7 +2818,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1.8119975262832402E-2</v>
+        <v>2.0466786355475799E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,7 +2829,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.7654920165998501E-2</v>
+        <v>2.1457456466121998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,7 +2840,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.38773244518457E-2</v>
+        <v>1.5649952091983398E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,7 +2851,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.10785340314136101</v>
+        <v>2.5074952303079899E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,7 +2862,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>5.3064560065377298E-2</v>
+        <v>8.4155909896228807E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,7 +2873,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.10262713166385</v>
+        <v>3.5446552521980597E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,7 +2884,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.8954248366013102E-2</v>
+        <v>2.2428620571035399E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,7 +2895,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.49052285663987E-2</v>
+        <v>1.7006572260993301E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,7 +2906,7 @@
         <v>27</v>
       </c>
       <c r="C38">
-        <v>1.6724886207261602E-2</v>
+        <v>2.0263157894736799E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,7 +2917,7 @@
         <v>28</v>
       </c>
       <c r="C39">
-        <v>1.49159284035437E-2</v>
+        <v>1.85001651800463E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,7 +2928,7 @@
         <v>29</v>
       </c>
       <c r="C40">
-        <v>1.47625867577393E-2</v>
+        <v>1.8602106414991101E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,7 +2939,7 @@
         <v>30</v>
       </c>
       <c r="C41">
-        <v>1.26991830461862E-2</v>
+        <v>1.54527559055118E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,7 +2950,7 @@
         <v>31</v>
       </c>
       <c r="C42">
-        <v>0.13966907085277899</v>
+        <v>2.78981295572229E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,7 +2961,7 @@
         <v>32</v>
       </c>
       <c r="C43">
-        <v>6.8048276957281204E-2</v>
+        <v>7.2978495669942601E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,7 +2972,7 @@
         <v>33</v>
       </c>
       <c r="C44">
-        <v>0.13019936007876001</v>
+        <v>3.14435445450214E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,7 +2983,7 @@
         <v>34</v>
       </c>
       <c r="C45">
-        <v>1.6192937123169701E-2</v>
+        <v>1.9882179675994101E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,7 +2994,7 @@
         <v>35</v>
       </c>
       <c r="C46">
-        <v>1.38769916052767E-2</v>
+        <v>1.6223571279045401E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2870,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80A6D15-87AB-46EB-BBC8-22EE73A40E9A}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -2936,34 +3072,34 @@
         <v>27</v>
       </c>
       <c r="C2" s="2">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="D2" s="2">
-        <v>7694</v>
+        <v>7275</v>
       </c>
       <c r="E2" s="2">
-        <v>0.27366174639871998</v>
+        <v>0.29047714114593698</v>
       </c>
       <c r="F2" s="2">
-        <v>2118</v>
+        <v>1989</v>
       </c>
       <c r="G2" s="2">
-        <v>5576</v>
+        <v>5286</v>
       </c>
       <c r="H2" s="2">
-        <v>0.72472056147647501</v>
+        <v>0.72659793814433005</v>
       </c>
       <c r="I2" s="2">
-        <v>0.19832829450471301</v>
+        <v>0.21106009183469801</v>
       </c>
       <c r="J2" s="2">
-        <v>20421</v>
+        <v>17770</v>
       </c>
       <c r="K2" s="2">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="L2" s="2">
-        <v>2.84021350570491E-2</v>
+        <v>3.3483398987056802E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -2974,34 +3110,34 @@
         <v>28</v>
       </c>
       <c r="C3" s="2">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="D3" s="2">
-        <v>5813</v>
+        <v>5429</v>
       </c>
       <c r="E3" s="2">
-        <v>0.206757958385204</v>
+        <v>0.21676981433419801</v>
       </c>
       <c r="F3" s="2">
-        <v>1478</v>
+        <v>1380</v>
       </c>
       <c r="G3" s="2">
-        <v>4335</v>
+        <v>4049</v>
       </c>
       <c r="H3" s="2">
-        <v>0.74574230173748501</v>
+        <v>0.74580954135199895</v>
       </c>
       <c r="I3" s="2">
-        <v>0.154188155788725</v>
+        <v>0.16166899580754601</v>
       </c>
       <c r="J3" s="2">
-        <v>22302</v>
+        <v>19616</v>
       </c>
       <c r="K3" s="2">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="L3" s="2">
-        <v>2.81140704869518E-2</v>
+        <v>3.07402120717781E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -3012,34 +3148,34 @@
         <v>29</v>
       </c>
       <c r="C4" s="2">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="D4" s="2">
-        <v>8047</v>
+        <v>7580</v>
       </c>
       <c r="E4" s="2">
-        <v>0.28621732171438702</v>
+        <v>0.302655220602915</v>
       </c>
       <c r="F4" s="2">
-        <v>2393</v>
+        <v>2232</v>
       </c>
       <c r="G4" s="2">
-        <v>5654</v>
+        <v>5348</v>
       </c>
       <c r="H4" s="2">
-        <v>0.70262209519075403</v>
+        <v>0.70554089709762502</v>
       </c>
       <c r="I4" s="2">
-        <v>0.20110261426284901</v>
+        <v>0.21353563585546001</v>
       </c>
       <c r="J4" s="2">
-        <v>20068</v>
+        <v>17465</v>
       </c>
       <c r="K4" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L4" s="2">
-        <v>2.84532589196731E-2</v>
+        <v>3.2808474091039201E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -3050,34 +3186,34 @@
         <v>30</v>
       </c>
       <c r="C5" s="2">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="D5" s="2">
-        <v>3654</v>
+        <v>3493</v>
       </c>
       <c r="E5" s="2">
-        <v>0.129966210208074</v>
+        <v>0.13946895587941699</v>
       </c>
       <c r="F5" s="2">
-        <v>1091</v>
+        <v>1020</v>
       </c>
       <c r="G5" s="2">
-        <v>2563</v>
+        <v>2473</v>
       </c>
       <c r="H5" s="2">
-        <v>0.70142309797482205</v>
+        <v>0.707987403378185</v>
       </c>
       <c r="I5" s="2">
-        <v>9.1161301796194194E-2</v>
+        <v>9.8742263924935098E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>24461</v>
+        <v>21552</v>
       </c>
       <c r="K5" s="2">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="L5" s="2">
-        <v>2.37929765749561E-2</v>
+        <v>2.5890868596882E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -3088,34 +3224,34 @@
         <v>31</v>
       </c>
       <c r="C6" s="2">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="D6" s="2">
-        <v>4237</v>
+        <v>4141</v>
       </c>
       <c r="E6" s="2">
-        <v>0.150702471990041</v>
+        <v>0.165342383709323</v>
       </c>
       <c r="F6" s="2">
-        <v>1155</v>
+        <v>1008</v>
       </c>
       <c r="G6" s="2">
-        <v>3082</v>
+        <v>3133</v>
       </c>
       <c r="H6" s="2">
-        <v>0.72740146329950395</v>
+        <v>0.75658053610239095</v>
       </c>
       <c r="I6" s="2">
-        <v>0.109621198648408</v>
+        <v>0.125094829307247</v>
       </c>
       <c r="J6" s="2">
-        <v>23878</v>
+        <v>20904</v>
       </c>
       <c r="K6" s="2">
-        <v>2397</v>
+        <v>656</v>
       </c>
       <c r="L6" s="2">
-        <v>0.100385291900494</v>
+        <v>3.1381553769613497E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -3126,34 +3262,34 @@
         <v>32</v>
       </c>
       <c r="C7" s="2">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="D7" s="2">
-        <v>2514</v>
+        <v>2330</v>
       </c>
       <c r="E7" s="2">
-        <v>8.9418459896852195E-2</v>
+        <v>9.3032541425434198E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>986</v>
+        <v>1311</v>
       </c>
       <c r="G7" s="2">
-        <v>1528</v>
+        <v>1019</v>
       </c>
       <c r="H7" s="2">
-        <v>0.60779634049323805</v>
+        <v>0.43733905579399102</v>
       </c>
       <c r="I7" s="2">
-        <v>5.4348212697848099E-2</v>
+        <v>4.0686763825114797E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>25601</v>
+        <v>22715</v>
       </c>
       <c r="K7" s="2">
-        <v>1341</v>
+        <v>273</v>
       </c>
       <c r="L7" s="2">
-        <v>5.2380766376313399E-2</v>
+        <v>1.20184899845917E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -3164,34 +3300,34 @@
         <v>33</v>
       </c>
       <c r="C8" s="2">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="D8" s="2">
-        <v>8591</v>
+        <v>8178</v>
       </c>
       <c r="E8" s="2">
-        <v>0.30556642361728598</v>
+        <v>0.32653224196446401</v>
       </c>
       <c r="F8" s="2">
-        <v>2291</v>
+        <v>1996</v>
       </c>
       <c r="G8" s="2">
-        <v>6300</v>
+        <v>6182</v>
       </c>
       <c r="H8" s="2">
-        <v>0.73332557327435699</v>
+        <v>0.75593054536561499</v>
       </c>
       <c r="I8" s="2">
-        <v>0.22407967277254101</v>
+        <v>0.24683569574765399</v>
       </c>
       <c r="J8" s="2">
-        <v>19524</v>
+        <v>16867</v>
       </c>
       <c r="K8" s="2">
-        <v>1944</v>
+        <v>694</v>
       </c>
       <c r="L8" s="2">
-        <v>9.95697602950215E-2</v>
+        <v>4.1145431908460303E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -3202,34 +3338,34 @@
         <v>34</v>
       </c>
       <c r="C9" s="2">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="D9" s="2">
-        <v>5232</v>
+        <v>4938</v>
       </c>
       <c r="E9" s="2">
-        <v>0.18609283300729099</v>
+        <v>0.19716510281493299</v>
       </c>
       <c r="F9" s="2">
-        <v>1377</v>
+        <v>1272</v>
       </c>
       <c r="G9" s="2">
-        <v>3855</v>
+        <v>3666</v>
       </c>
       <c r="H9" s="2">
-        <v>0.73681192660550499</v>
+        <v>0.74240583232077795</v>
       </c>
       <c r="I9" s="2">
-        <v>0.13711541881557901</v>
+        <v>0.146376522259932</v>
       </c>
       <c r="J9" s="2">
-        <v>22883</v>
+        <v>20107</v>
       </c>
       <c r="K9" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="L9" s="2">
-        <v>3.11585019446751E-2</v>
+        <v>3.5609489232605603E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -3240,34 +3376,34 @@
         <v>35</v>
       </c>
       <c r="C10" s="2">
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="D10" s="2">
-        <v>4301</v>
+        <v>4011</v>
       </c>
       <c r="E10" s="2">
-        <v>0.152978836919794</v>
+        <v>0.16015172689159499</v>
       </c>
       <c r="F10" s="2">
-        <v>1060</v>
+        <v>971</v>
       </c>
       <c r="G10" s="2">
-        <v>3241</v>
+        <v>3040</v>
       </c>
       <c r="H10" s="2">
-        <v>0.75354568704952296</v>
+        <v>0.75791573173772098</v>
       </c>
       <c r="I10" s="2">
-        <v>0.115276542770763</v>
+        <v>0.121381513276103</v>
       </c>
       <c r="J10" s="2">
-        <v>23814</v>
+        <v>21034</v>
       </c>
       <c r="K10" s="2">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="L10" s="2">
-        <v>2.5615184345343101E-2</v>
+        <v>2.84777027669487E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -3278,34 +3414,34 @@
         <v>27</v>
       </c>
       <c r="C11" s="2">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="D11" s="2">
-        <v>8100</v>
+        <v>7665</v>
       </c>
       <c r="E11" s="2">
-        <v>0.27094831911690898</v>
+        <v>0.28416252687773402</v>
       </c>
       <c r="F11" s="2">
-        <v>2231</v>
+        <v>2117</v>
       </c>
       <c r="G11" s="2">
-        <v>5869</v>
+        <v>5548</v>
       </c>
       <c r="H11" s="2">
-        <v>0.72456790123456805</v>
+        <v>0.72380952380952401</v>
       </c>
       <c r="I11" s="2">
-        <v>0.19632045492557301</v>
+        <v>0.20567954326388399</v>
       </c>
       <c r="J11" s="2">
-        <v>21795</v>
+        <v>19309</v>
       </c>
       <c r="K11" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="L11" s="2">
-        <v>2.72998394127093E-2</v>
+        <v>3.0659278056864699E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -3316,34 +3452,34 @@
         <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="D12" s="2">
-        <v>6049</v>
+        <v>5699</v>
       </c>
       <c r="E12" s="2">
-        <v>0.20234152868372601</v>
+        <v>0.21127752650700701</v>
       </c>
       <c r="F12" s="2">
-        <v>1480</v>
+        <v>1399</v>
       </c>
       <c r="G12" s="2">
-        <v>4569</v>
+        <v>4300</v>
       </c>
       <c r="H12" s="2">
-        <v>0.75533145974541205</v>
+        <v>0.75451833655027201</v>
       </c>
       <c r="I12" s="2">
-        <v>0.15283492222779699</v>
+        <v>0.159412767850523</v>
       </c>
       <c r="J12" s="2">
-        <v>23846</v>
+        <v>21275</v>
       </c>
       <c r="K12" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L12" s="2">
-        <v>2.5664681707623899E-2</v>
+        <v>2.8484136310223299E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -3354,34 +3490,34 @@
         <v>29</v>
       </c>
       <c r="C13" s="2">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="D13" s="2">
-        <v>8278</v>
+        <v>7866</v>
       </c>
       <c r="E13" s="2">
-        <v>0.27690249205552803</v>
+        <v>0.29161414695632798</v>
       </c>
       <c r="F13" s="2">
-        <v>2463</v>
+        <v>2326</v>
       </c>
       <c r="G13" s="2">
-        <v>5815</v>
+        <v>5540</v>
       </c>
       <c r="H13" s="2">
-        <v>0.70246436337279505</v>
+        <v>0.70429697431985805</v>
       </c>
       <c r="I13" s="2">
-        <v>0.19451413279812699</v>
+        <v>0.20538296137020801</v>
       </c>
       <c r="J13" s="2">
-        <v>21617</v>
+        <v>19108</v>
       </c>
       <c r="K13" s="2">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="L13" s="2">
-        <v>2.4887819771476201E-2</v>
+        <v>2.7684739376177499E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -3392,34 +3528,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="2">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="D14" s="2">
-        <v>3934</v>
+        <v>3733</v>
       </c>
       <c r="E14" s="2">
-        <v>0.13159391202542201</v>
+        <v>0.138392526136279</v>
       </c>
       <c r="F14" s="2">
-        <v>1162</v>
+        <v>1084</v>
       </c>
       <c r="G14" s="2">
-        <v>2772</v>
+        <v>2649</v>
       </c>
       <c r="H14" s="2">
-        <v>0.70462633451957302</v>
+        <v>0.70961693008304305</v>
       </c>
       <c r="I14" s="2">
-        <v>9.2724535875564507E-2</v>
+        <v>9.8205679543263896E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>25961</v>
+        <v>23241</v>
       </c>
       <c r="K14" s="2">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="L14" s="2">
-        <v>2.2880474557990801E-2</v>
+        <v>2.46116776386558E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -3430,34 +3566,34 @@
         <v>31</v>
       </c>
       <c r="C15" s="2">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="D15" s="2">
-        <v>4543</v>
+        <v>4492</v>
       </c>
       <c r="E15" s="2">
-        <v>0.15196521157384199</v>
+        <v>0.166530733298732</v>
       </c>
       <c r="F15" s="2">
-        <v>1261</v>
+        <v>1144</v>
       </c>
       <c r="G15" s="2">
-        <v>3282</v>
+        <v>3348</v>
       </c>
       <c r="H15" s="2">
-        <v>0.72243011226062104</v>
+        <v>0.74532502226179898</v>
       </c>
       <c r="I15" s="2">
-        <v>0.109784244857</v>
+        <v>0.124119522503151</v>
       </c>
       <c r="J15" s="2">
-        <v>25352</v>
+        <v>22482</v>
       </c>
       <c r="K15" s="2">
-        <v>2335</v>
+        <v>687</v>
       </c>
       <c r="L15" s="2">
-        <v>9.2103187125276098E-2</v>
+        <v>3.0557779556978901E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -3468,34 +3604,34 @@
         <v>32</v>
       </c>
       <c r="C16" s="2">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="D16" s="2">
-        <v>2751</v>
+        <v>2637</v>
       </c>
       <c r="E16" s="2">
-        <v>9.2022077270446603E-2</v>
+        <v>9.7760806702750794E-2</v>
       </c>
       <c r="F16" s="2">
-        <v>1077</v>
+        <v>1410</v>
       </c>
       <c r="G16" s="2">
-        <v>1674</v>
+        <v>1227</v>
       </c>
       <c r="H16" s="2">
-        <v>0.60850599781897496</v>
+        <v>0.465301478953356</v>
       </c>
       <c r="I16" s="2">
-        <v>5.5995985950827901E-2</v>
+        <v>4.5488247942463103E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>27144</v>
+        <v>24337</v>
       </c>
       <c r="K16" s="2">
-        <v>1289</v>
+        <v>305</v>
       </c>
       <c r="L16" s="2">
-        <v>4.7487474211612098E-2</v>
+        <v>1.2532358137814901E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -3506,34 +3642,34 @@
         <v>33</v>
       </c>
       <c r="C17" s="2">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="D17" s="2">
-        <v>9188</v>
+        <v>8819</v>
       </c>
       <c r="E17" s="2">
-        <v>0.30734236494397099</v>
+        <v>0.32694446504040903</v>
       </c>
       <c r="F17" s="2">
-        <v>2517</v>
+        <v>2231</v>
       </c>
       <c r="G17" s="2">
-        <v>6671</v>
+        <v>6588</v>
       </c>
       <c r="H17" s="2">
-        <v>0.726055724858511</v>
+        <v>0.747023472048985</v>
       </c>
       <c r="I17" s="2">
-        <v>0.22314768355912401</v>
+        <v>0.24423518944168501</v>
       </c>
       <c r="J17" s="2">
-        <v>20707</v>
+        <v>18155</v>
       </c>
       <c r="K17" s="2">
-        <v>1892</v>
+        <v>721</v>
       </c>
       <c r="L17" s="2">
-        <v>9.1370068092915396E-2</v>
+        <v>3.9713577526852097E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -3544,34 +3680,34 @@
         <v>34</v>
       </c>
       <c r="C18" s="2">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="D18" s="2">
-        <v>5513</v>
+        <v>5244</v>
       </c>
       <c r="E18" s="2">
-        <v>0.18441210904833599</v>
+        <v>0.194409431304219</v>
       </c>
       <c r="F18" s="2">
-        <v>1436</v>
+        <v>1324</v>
       </c>
       <c r="G18" s="2">
-        <v>4077</v>
+        <v>3920</v>
       </c>
       <c r="H18" s="2">
-        <v>0.73952475965898801</v>
+        <v>0.747520976353928</v>
       </c>
       <c r="I18" s="2">
-        <v>0.136377320622178</v>
+        <v>0.14532512790094201</v>
       </c>
       <c r="J18" s="2">
-        <v>24382</v>
+        <v>21730</v>
       </c>
       <c r="K18" s="2">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="L18" s="2">
-        <v>3.1088507915675499E-2</v>
+        <v>3.4238380119650302E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -3582,34 +3718,34 @@
         <v>35</v>
       </c>
       <c r="C19" s="2">
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="D19" s="2">
-        <v>4611</v>
+        <v>4302</v>
       </c>
       <c r="E19" s="2">
-        <v>0.15423983943803299</v>
+        <v>0.15948691332394199</v>
       </c>
       <c r="F19" s="2">
-        <v>1144</v>
+        <v>1060</v>
       </c>
       <c r="G19" s="2">
-        <v>3467</v>
+        <v>3242</v>
       </c>
       <c r="H19" s="2">
-        <v>0.75189763608761695</v>
+        <v>0.75360297536029797</v>
       </c>
       <c r="I19" s="2">
-        <v>0.115972570663991</v>
+        <v>0.12018981241195199</v>
       </c>
       <c r="J19" s="2">
-        <v>25284</v>
+        <v>22672</v>
       </c>
       <c r="K19" s="2">
-        <v>649</v>
+        <v>607</v>
       </c>
       <c r="L19" s="2">
-        <v>2.5668406897642802E-2</v>
+        <v>2.6773112208891999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -3620,34 +3756,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="D20" s="2">
-        <v>5388</v>
+        <v>4915</v>
       </c>
       <c r="E20" s="2">
-        <v>0.28091762252346197</v>
+        <v>0.29927540644218498</v>
       </c>
       <c r="F20" s="2">
-        <v>1595</v>
+        <v>1468</v>
       </c>
       <c r="G20" s="2">
-        <v>3793</v>
+        <v>3447</v>
       </c>
       <c r="H20" s="2">
-        <v>0.70397178916109904</v>
+        <v>0.70132248219735505</v>
       </c>
       <c r="I20" s="2">
-        <v>0.197758081334724</v>
+        <v>0.209888570906655</v>
       </c>
       <c r="J20" s="2">
-        <v>13792</v>
+        <v>11508</v>
       </c>
       <c r="K20" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L20" s="2">
-        <v>1.9504060324826E-2</v>
+        <v>2.2679874869655899E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -3658,34 +3794,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="2">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="D21" s="2">
-        <v>3830</v>
+        <v>3477</v>
       </c>
       <c r="E21" s="2">
-        <v>0.199687174139729</v>
+        <v>0.21171527735492901</v>
       </c>
       <c r="F21" s="2">
-        <v>1012</v>
+        <v>908</v>
       </c>
       <c r="G21" s="2">
-        <v>2818</v>
+        <v>2569</v>
       </c>
       <c r="H21" s="2">
-        <v>0.73577023498694505</v>
+        <v>0.73885533505895895</v>
       </c>
       <c r="I21" s="2">
-        <v>0.146923879040667</v>
+        <v>0.156426962187177</v>
       </c>
       <c r="J21" s="2">
-        <v>15350</v>
+        <v>12946</v>
       </c>
       <c r="K21" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="L21" s="2">
-        <v>1.8957654723127E-2</v>
+        <v>2.1242082496524001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -3696,34 +3832,34 @@
         <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="D22" s="2">
-        <v>5806</v>
+        <v>5266</v>
       </c>
       <c r="E22" s="2">
-        <v>0.302711157455683</v>
+        <v>0.32064787188698801</v>
       </c>
       <c r="F22" s="2">
-        <v>1746</v>
+        <v>1557</v>
       </c>
       <c r="G22" s="2">
-        <v>4060</v>
+        <v>3709</v>
       </c>
       <c r="H22" s="2">
-        <v>0.69927661040303102</v>
+        <v>0.704329661982529</v>
       </c>
       <c r="I22" s="2">
-        <v>0.21167883211678801</v>
+        <v>0.22584180722157901</v>
       </c>
       <c r="J22" s="2">
-        <v>13374</v>
+        <v>11157</v>
       </c>
       <c r="K22" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L22" s="2">
-        <v>1.9365933901600099E-2</v>
+        <v>2.25867168593708E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -3734,34 +3870,34 @@
         <v>30</v>
       </c>
       <c r="C23" s="2">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="D23" s="2">
-        <v>2063</v>
+        <v>1904</v>
       </c>
       <c r="E23" s="2">
-        <v>0.107559958289885</v>
+        <v>0.115934969250441</v>
       </c>
       <c r="F23" s="2">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="G23" s="2">
-        <v>1425</v>
+        <v>1333</v>
       </c>
       <c r="H23" s="2">
-        <v>0.69074163839069302</v>
+        <v>0.70010504201680701</v>
       </c>
       <c r="I23" s="2">
-        <v>7.4296141814389996E-2</v>
+        <v>8.1166656518297506E-2</v>
       </c>
       <c r="J23" s="2">
-        <v>17117</v>
+        <v>14519</v>
       </c>
       <c r="K23" s="2">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="L23" s="2">
-        <v>1.74095928024771E-2</v>
+        <v>1.9009573662097899E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -3772,34 +3908,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="2">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="D24" s="2">
-        <v>2829</v>
+        <v>2758</v>
       </c>
       <c r="E24" s="2">
-        <v>0.147497393117831</v>
+        <v>0.167935212811301</v>
       </c>
       <c r="F24" s="2">
-        <v>721</v>
+        <v>589</v>
       </c>
       <c r="G24" s="2">
-        <v>2108</v>
+        <v>2169</v>
       </c>
       <c r="H24" s="2">
-        <v>0.745139625309297</v>
+        <v>0.78643944887599704</v>
       </c>
       <c r="I24" s="2">
-        <v>0.10990615224191901</v>
+        <v>0.13207087621019301</v>
       </c>
       <c r="J24" s="2">
-        <v>16351</v>
+        <v>13665</v>
       </c>
       <c r="K24" s="2">
-        <v>1981</v>
+        <v>402</v>
       </c>
       <c r="L24" s="2">
-        <v>0.12115466943917801</v>
+        <v>2.9418221734357899E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -3810,34 +3946,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="2">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="D25" s="2">
-        <v>1737</v>
+        <v>1639</v>
       </c>
       <c r="E25" s="2">
-        <v>9.0563086548488006E-2</v>
+        <v>9.9799062290689897E-2</v>
       </c>
       <c r="F25" s="2">
-        <v>646</v>
+        <v>899</v>
       </c>
       <c r="G25" s="2">
-        <v>1091</v>
+        <v>740</v>
       </c>
       <c r="H25" s="2">
-        <v>0.628094415659182</v>
+        <v>0.451494813910921</v>
       </c>
       <c r="I25" s="2">
-        <v>5.6882168925964503E-2</v>
+        <v>4.5058759057419497E-2</v>
       </c>
       <c r="J25" s="2">
-        <v>17443</v>
+        <v>14784</v>
       </c>
       <c r="K25" s="2">
-        <v>1051</v>
+        <v>129</v>
       </c>
       <c r="L25" s="2">
-        <v>6.0253396778077201E-2</v>
+        <v>8.7256493506493501E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -3848,34 +3984,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="2">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="D26" s="2">
-        <v>6860</v>
+        <v>6356</v>
       </c>
       <c r="E26" s="2">
-        <v>0.35766423357664201</v>
+        <v>0.38701820617426802</v>
       </c>
       <c r="F26" s="2">
-        <v>1643</v>
+        <v>1379</v>
       </c>
       <c r="G26" s="2">
-        <v>5217</v>
+        <v>4977</v>
       </c>
       <c r="H26" s="2">
-        <v>0.76049562682215699</v>
+        <v>0.78303964757709299</v>
       </c>
       <c r="I26" s="2">
-        <v>0.27200208550573501</v>
+        <v>0.30305059976861698</v>
       </c>
       <c r="J26" s="2">
-        <v>12320</v>
+        <v>10067</v>
       </c>
       <c r="K26" s="2">
-        <v>1332</v>
+        <v>289</v>
       </c>
       <c r="L26" s="2">
-        <v>0.108116883116883</v>
+        <v>2.87076586867985E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -3886,34 +4022,34 @@
         <v>34</v>
       </c>
       <c r="C27" s="2">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="D27" s="2">
-        <v>3265</v>
+        <v>2958</v>
       </c>
       <c r="E27" s="2">
-        <v>0.170229405630865</v>
+        <v>0.18011325579979301</v>
       </c>
       <c r="F27" s="2">
-        <v>808</v>
+        <v>702</v>
       </c>
       <c r="G27" s="2">
-        <v>2457</v>
+        <v>2256</v>
       </c>
       <c r="H27" s="2">
-        <v>0.75252679938744305</v>
+        <v>0.76267748478701802</v>
       </c>
       <c r="I27" s="2">
-        <v>0.128102189781022</v>
+        <v>0.137368324910187</v>
       </c>
       <c r="J27" s="2">
-        <v>15915</v>
+        <v>13465</v>
       </c>
       <c r="K27" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="L27" s="2">
-        <v>2.0295318881558298E-2</v>
+        <v>2.29483847010769E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -3924,34 +4060,34 @@
         <v>35</v>
       </c>
       <c r="C28" s="2">
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="D28" s="2">
-        <v>2954</v>
+        <v>2640</v>
       </c>
       <c r="E28" s="2">
-        <v>0.15401459854014601</v>
+        <v>0.16075016744809101</v>
       </c>
       <c r="F28" s="2">
-        <v>728</v>
+        <v>609</v>
       </c>
       <c r="G28" s="2">
-        <v>2226</v>
+        <v>2031</v>
       </c>
       <c r="H28" s="2">
-        <v>0.75355450236966803</v>
+        <v>0.76931818181818201</v>
       </c>
       <c r="I28" s="2">
-        <v>0.116058394160584</v>
+        <v>0.123668026548134</v>
       </c>
       <c r="J28" s="2">
-        <v>16226</v>
+        <v>13783</v>
       </c>
       <c r="K28" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L28" s="2">
-        <v>1.6516701590040699E-2</v>
+        <v>1.9516796053108899E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -3962,34 +4098,34 @@
         <v>27</v>
       </c>
       <c r="C29" s="2">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="D29" s="2">
-        <v>5744</v>
+        <v>5303</v>
       </c>
       <c r="E29" s="2">
-        <v>0.28394878639576798</v>
+        <v>0.30004526422994199</v>
       </c>
       <c r="F29" s="2">
-        <v>1726</v>
+        <v>1589</v>
       </c>
       <c r="G29" s="2">
-        <v>4018</v>
+        <v>3714</v>
       </c>
       <c r="H29" s="2">
-        <v>0.69951253481894105</v>
+        <v>0.70035828776164399</v>
       </c>
       <c r="I29" s="2">
-        <v>0.19862573533046601</v>
+        <v>0.210139187507073</v>
       </c>
       <c r="J29" s="2">
-        <v>14485</v>
+        <v>12371</v>
       </c>
       <c r="K29" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L29" s="2">
-        <v>1.73282706247843E-2</v>
+        <v>1.8915204914719898E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -4000,34 +4136,34 @@
         <v>28</v>
       </c>
       <c r="C30" s="2">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="D30" s="2">
-        <v>4059</v>
+        <v>3749</v>
       </c>
       <c r="E30" s="2">
-        <v>0.20065252854812399</v>
+        <v>0.21211949756704801</v>
       </c>
       <c r="F30" s="2">
-        <v>1106</v>
+        <v>1036</v>
       </c>
       <c r="G30" s="2">
-        <v>2953</v>
+        <v>2713</v>
       </c>
       <c r="H30" s="2">
-        <v>0.727519093372752</v>
+        <v>0.72365964257135196</v>
       </c>
       <c r="I30" s="2">
-        <v>0.14597854565228099</v>
+        <v>0.153502319791785</v>
       </c>
       <c r="J30" s="2">
-        <v>16170</v>
+        <v>13925</v>
       </c>
       <c r="K30" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L30" s="2">
-        <v>1.8119975262832402E-2</v>
+        <v>2.0466786355475799E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -4038,34 +4174,34 @@
         <v>29</v>
       </c>
       <c r="C31" s="2">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="D31" s="2">
-        <v>6012</v>
+        <v>5557</v>
       </c>
       <c r="E31" s="2">
-        <v>0.29719709328192201</v>
+        <v>0.31441665723661899</v>
       </c>
       <c r="F31" s="2">
-        <v>1866</v>
+        <v>1670</v>
       </c>
       <c r="G31" s="2">
-        <v>4146</v>
+        <v>3887</v>
       </c>
       <c r="H31" s="2">
-        <v>0.68962075848303395</v>
+        <v>0.69947813568472195</v>
       </c>
       <c r="I31" s="2">
-        <v>0.20495328488803199</v>
+        <v>0.219927577232092</v>
       </c>
       <c r="J31" s="2">
-        <v>14217</v>
+        <v>12117</v>
       </c>
       <c r="K31" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L31" s="2">
-        <v>1.7654920165998501E-2</v>
+        <v>2.1457456466121998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -4076,34 +4212,34 @@
         <v>30</v>
       </c>
       <c r="C32" s="2">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="D32" s="2">
-        <v>2214</v>
+        <v>2019</v>
       </c>
       <c r="E32" s="2">
-        <v>0.109446833753522</v>
+        <v>0.11423560031685</v>
       </c>
       <c r="F32" s="2">
-        <v>692</v>
+        <v>609</v>
       </c>
       <c r="G32" s="2">
-        <v>1522</v>
+        <v>1410</v>
       </c>
       <c r="H32" s="2">
-        <v>0.68744354110207795</v>
+        <v>0.69836552748885605</v>
       </c>
       <c r="I32" s="2">
-        <v>7.5238518957931697E-2</v>
+        <v>7.9778205273282804E-2</v>
       </c>
       <c r="J32" s="2">
-        <v>18015</v>
+        <v>15655</v>
       </c>
       <c r="K32" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L32" s="2">
-        <v>1.38773244518457E-2</v>
+        <v>1.5649952091983398E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -4114,34 +4250,34 @@
         <v>31</v>
       </c>
       <c r="C33" s="2">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="D33" s="2">
-        <v>3039</v>
+        <v>2998</v>
       </c>
       <c r="E33" s="2">
-        <v>0.150229868011271</v>
+        <v>0.16962770170872499</v>
       </c>
       <c r="F33" s="2">
-        <v>811</v>
+        <v>674</v>
       </c>
       <c r="G33" s="2">
-        <v>2228</v>
+        <v>2324</v>
       </c>
       <c r="H33" s="2">
-        <v>0.73313589996709405</v>
+        <v>0.77518345563709101</v>
       </c>
       <c r="I33" s="2">
-        <v>0.110138909486381</v>
+        <v>0.131492587982347</v>
       </c>
       <c r="J33" s="2">
-        <v>17190</v>
+        <v>14676</v>
       </c>
       <c r="K33" s="2">
-        <v>1854</v>
+        <v>368</v>
       </c>
       <c r="L33" s="2">
-        <v>0.10785340314136101</v>
+        <v>2.5074952303079899E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -4152,34 +4288,34 @@
         <v>32</v>
       </c>
       <c r="C34" s="2">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="D34" s="2">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="E34" s="2">
-        <v>9.2639280241237798E-2</v>
+        <v>0.105805137490098</v>
       </c>
       <c r="F34" s="2">
-        <v>710</v>
+        <v>985</v>
       </c>
       <c r="G34" s="2">
-        <v>1164</v>
+        <v>885</v>
       </c>
       <c r="H34" s="2">
-        <v>0.62113127001067203</v>
+        <v>0.473262032085562</v>
       </c>
       <c r="I34" s="2">
-        <v>5.7541153789114598E-2</v>
+        <v>5.0073554373656202E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>18355</v>
+        <v>15804</v>
       </c>
       <c r="K34" s="2">
-        <v>974</v>
+        <v>133</v>
       </c>
       <c r="L34" s="2">
-        <v>5.3064560065377298E-2</v>
+        <v>8.4155909896228807E-3</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -4190,34 +4326,34 @@
         <v>33</v>
       </c>
       <c r="C35" s="2">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="D35" s="2">
-        <v>7211</v>
+        <v>6869</v>
       </c>
       <c r="E35" s="2">
-        <v>0.35646843640318399</v>
+        <v>0.38864999434197101</v>
       </c>
       <c r="F35" s="2">
-        <v>1754</v>
+        <v>1521</v>
       </c>
       <c r="G35" s="2">
-        <v>5457</v>
+        <v>5348</v>
       </c>
       <c r="H35" s="2">
-        <v>0.75676050478435697</v>
+        <v>0.77857038870286799</v>
       </c>
       <c r="I35" s="2">
-        <v>0.269761233872164</v>
+        <v>0.30259137716419598</v>
       </c>
       <c r="J35" s="2">
-        <v>13018</v>
+        <v>10805</v>
       </c>
       <c r="K35" s="2">
-        <v>1336</v>
+        <v>383</v>
       </c>
       <c r="L35" s="2">
-        <v>0.10262713166385</v>
+        <v>3.5446552521980597E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -4228,34 +4364,34 @@
         <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="D36" s="2">
-        <v>3399</v>
+        <v>3139</v>
       </c>
       <c r="E36" s="2">
-        <v>0.16802610114192501</v>
+        <v>0.177605522236053</v>
       </c>
       <c r="F36" s="2">
-        <v>821</v>
+        <v>756</v>
       </c>
       <c r="G36" s="2">
-        <v>2578</v>
+        <v>2383</v>
       </c>
       <c r="H36" s="2">
-        <v>0.75845837010885597</v>
+        <v>0.75915896782414805</v>
       </c>
       <c r="I36" s="2">
-        <v>0.12744080280785</v>
+        <v>0.13483082494059101</v>
       </c>
       <c r="J36" s="2">
-        <v>16830</v>
+        <v>14535</v>
       </c>
       <c r="K36" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L36" s="2">
-        <v>1.8954248366013102E-2</v>
+        <v>2.2428620571035399E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -4266,34 +4402,34 @@
         <v>35</v>
       </c>
       <c r="C37" s="2">
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="D37" s="2">
-        <v>3188</v>
+        <v>2915</v>
       </c>
       <c r="E37" s="2">
-        <v>0.157595531168125</v>
+        <v>0.16493153785221201</v>
       </c>
       <c r="F37" s="2">
-        <v>792</v>
+        <v>722</v>
       </c>
       <c r="G37" s="2">
-        <v>2396</v>
+        <v>2193</v>
       </c>
       <c r="H37" s="2">
-        <v>0.75156838143036397</v>
+        <v>0.75231560891938298</v>
       </c>
       <c r="I37" s="2">
-        <v>0.11844381828068599</v>
+        <v>0.12408057032929699</v>
       </c>
       <c r="J37" s="2">
-        <v>17041</v>
+        <v>14759</v>
       </c>
       <c r="K37" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L37" s="2">
-        <v>1.49052285663987E-2</v>
+        <v>1.7006572260993301E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -4304,34 +4440,34 @@
         <v>27</v>
       </c>
       <c r="C38" s="2">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="D38" s="2">
-        <v>4406</v>
+        <v>3927</v>
       </c>
       <c r="E38" s="2">
-        <v>0.31805385115137502</v>
+        <v>0.34067840721783599</v>
       </c>
       <c r="F38" s="2">
-        <v>1319</v>
+        <v>1185</v>
       </c>
       <c r="G38" s="2">
-        <v>3087</v>
+        <v>2742</v>
       </c>
       <c r="H38" s="2">
-        <v>0.70063549704947803</v>
+        <v>0.69824293353705102</v>
       </c>
       <c r="I38" s="2">
-        <v>0.22283981808994399</v>
+        <v>0.237876290448512</v>
       </c>
       <c r="J38" s="2">
-        <v>9447</v>
+        <v>7600</v>
       </c>
       <c r="K38" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L38" s="2">
-        <v>1.6724886207261602E-2</v>
+        <v>2.0263157894736799E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -4342,34 +4478,34 @@
         <v>28</v>
       </c>
       <c r="C39" s="2">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="D39" s="2">
-        <v>2791</v>
+        <v>2446</v>
       </c>
       <c r="E39" s="2">
-        <v>0.201472605211867</v>
+        <v>0.21219744946647001</v>
       </c>
       <c r="F39" s="2">
-        <v>814</v>
+        <v>735</v>
       </c>
       <c r="G39" s="2">
-        <v>1977</v>
+        <v>1711</v>
       </c>
       <c r="H39" s="2">
-        <v>0.70834826227158698</v>
+        <v>0.69950940310711396</v>
       </c>
       <c r="I39" s="2">
-        <v>0.142712769797156</v>
+        <v>0.14843411121714201</v>
       </c>
       <c r="J39" s="2">
-        <v>11062</v>
+        <v>9081</v>
       </c>
       <c r="K39" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L39" s="2">
-        <v>1.49159284035437E-2</v>
+        <v>1.85001651800463E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -4380,34 +4516,34 @@
         <v>29</v>
       </c>
       <c r="C40" s="2">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="D40" s="2">
-        <v>4776</v>
+        <v>4216</v>
       </c>
       <c r="E40" s="2">
-        <v>0.34476286724897098</v>
+        <v>0.36574997831179001</v>
       </c>
       <c r="F40" s="2">
-        <v>1592</v>
+        <v>1393</v>
       </c>
       <c r="G40" s="2">
-        <v>3184</v>
+        <v>2823</v>
       </c>
       <c r="H40" s="2">
-        <v>0.66666666666666696</v>
+        <v>0.66959203036053105</v>
       </c>
       <c r="I40" s="2">
-        <v>0.22984191149931399</v>
+        <v>0.244903270582112</v>
       </c>
       <c r="J40" s="2">
-        <v>9077</v>
+        <v>7311</v>
       </c>
       <c r="K40" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L40" s="2">
-        <v>1.47625867577393E-2</v>
+        <v>1.8602106414991101E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -4418,34 +4554,34 @@
         <v>30</v>
       </c>
       <c r="C41" s="2">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="D41" s="2">
-        <v>1490</v>
+        <v>1367</v>
       </c>
       <c r="E41" s="2">
-        <v>0.10755792969032001</v>
+        <v>0.118591133859634</v>
       </c>
       <c r="F41" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="G41" s="2">
-        <v>1101</v>
+        <v>1007</v>
       </c>
       <c r="H41" s="2">
-        <v>0.73892617449664399</v>
+        <v>0.73664959765910798</v>
       </c>
       <c r="I41" s="2">
-        <v>7.9477369522846994E-2</v>
+        <v>8.7360111043636696E-2</v>
       </c>
       <c r="J41" s="2">
-        <v>12363</v>
+        <v>10160</v>
       </c>
       <c r="K41" s="2">
         <v>157</v>
       </c>
       <c r="L41" s="2">
-        <v>1.26991830461862E-2</v>
+        <v>1.54527559055118E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -4456,34 +4592,34 @@
         <v>31</v>
       </c>
       <c r="C42" s="2">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="D42" s="2">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="E42" s="2">
-        <v>0.14928174402656499</v>
+        <v>0.17905786414505101</v>
       </c>
       <c r="F42" s="2">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="G42" s="2">
-        <v>1686</v>
+        <v>1779</v>
       </c>
       <c r="H42" s="2">
-        <v>0.81528046421663403</v>
+        <v>0.86191860465116299</v>
       </c>
       <c r="I42" s="2">
-        <v>0.12170648956904601</v>
+        <v>0.15433330441571999</v>
       </c>
       <c r="J42" s="2">
-        <v>11785</v>
+        <v>9463</v>
       </c>
       <c r="K42" s="2">
-        <v>1646</v>
+        <v>264</v>
       </c>
       <c r="L42" s="2">
-        <v>0.13966907085277899</v>
+        <v>2.78981295572229E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -4494,34 +4630,34 @@
         <v>32</v>
       </c>
       <c r="C43" s="2">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="D43" s="2">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="E43" s="2">
-        <v>9.0882841261820502E-2</v>
+        <v>0.108441051444435</v>
       </c>
       <c r="F43" s="2">
-        <v>434</v>
+        <v>675</v>
       </c>
       <c r="G43" s="2">
-        <v>825</v>
+        <v>575</v>
       </c>
       <c r="H43" s="2">
-        <v>0.65528196981731501</v>
+        <v>0.46</v>
       </c>
       <c r="I43" s="2">
-        <v>5.95538872446401E-2</v>
+        <v>4.9882883664439999E-2</v>
       </c>
       <c r="J43" s="2">
-        <v>12594</v>
+        <v>10277</v>
       </c>
       <c r="K43" s="2">
-        <v>857</v>
+        <v>75</v>
       </c>
       <c r="L43" s="2">
-        <v>6.8048276957281204E-2</v>
+        <v>7.2978495669942601E-3</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -4532,34 +4668,34 @@
         <v>33</v>
       </c>
       <c r="C44" s="2">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="D44" s="2">
-        <v>5727</v>
+        <v>5230</v>
       </c>
       <c r="E44" s="2">
-        <v>0.41341225727279302</v>
+        <v>0.45371735924351497</v>
       </c>
       <c r="F44" s="2">
-        <v>1170</v>
+        <v>996</v>
       </c>
       <c r="G44" s="2">
-        <v>4557</v>
+        <v>4234</v>
       </c>
       <c r="H44" s="2">
-        <v>0.795704557359874</v>
+        <v>0.80956022944550698</v>
       </c>
       <c r="I44" s="2">
-        <v>0.32895401718039402</v>
+        <v>0.36731152945258999</v>
       </c>
       <c r="J44" s="2">
-        <v>8126</v>
+        <v>6297</v>
       </c>
       <c r="K44" s="2">
-        <v>1058</v>
+        <v>198</v>
       </c>
       <c r="L44" s="2">
-        <v>0.13019936007876001</v>
+        <v>3.14435445450214E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -4570,34 +4706,34 @@
         <v>34</v>
       </c>
       <c r="C45" s="2">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="D45" s="2">
-        <v>2243</v>
+        <v>2021</v>
       </c>
       <c r="E45" s="2">
-        <v>0.16191438677542799</v>
+        <v>0.17532749197536199</v>
       </c>
       <c r="F45" s="2">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="G45" s="2">
-        <v>1724</v>
+        <v>1557</v>
       </c>
       <c r="H45" s="2">
-        <v>0.76861346411056597</v>
+        <v>0.770410687778328</v>
       </c>
       <c r="I45" s="2">
-        <v>0.1244495777088</v>
+        <v>0.135074173679188</v>
       </c>
       <c r="J45" s="2">
-        <v>11610</v>
+        <v>9506</v>
       </c>
       <c r="K45" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L45" s="2">
-        <v>1.6192937123169701E-2</v>
+        <v>1.9882179675994101E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -4608,34 +4744,34 @@
         <v>35</v>
       </c>
       <c r="C46" s="2">
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="D46" s="2">
-        <v>2179</v>
+        <v>1973</v>
       </c>
       <c r="E46" s="2">
-        <v>0.15729444885584401</v>
+        <v>0.17116335559989601</v>
       </c>
       <c r="F46" s="2">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="G46" s="2">
-        <v>1626</v>
+        <v>1470</v>
       </c>
       <c r="H46" s="2">
-        <v>0.74621385956860897</v>
+        <v>0.74505828687278297</v>
       </c>
       <c r="I46" s="2">
-        <v>0.117375297769436</v>
+        <v>0.12752667649865501</v>
       </c>
       <c r="J46" s="2">
-        <v>11674</v>
+        <v>9554</v>
       </c>
       <c r="K46" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L46" s="2">
-        <v>1.38769916052767E-2</v>
+        <v>1.6223571279045401E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -4677,43 +4813,43 @@
       </c>
       <c r="B53" s="3">
         <f>AVERAGE(C2:C10)</f>
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" ref="C53:K53" si="0">AVERAGE(D2:D10)</f>
-        <v>5564.7777777777774</v>
+        <v>5263.8888888888887</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="0"/>
-        <v>0.19792914023751657</v>
+        <v>0.21017723652980183</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="0"/>
-        <v>1549.8888888888889</v>
+        <v>1464.3333333333333</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="0"/>
-        <v>4014.8888888888887</v>
+        <v>3799.5555555555557</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="0"/>
-        <v>0.71482100523351799</v>
+        <v>0.70401194236584841</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="0"/>
-        <v>0.14280237911751337</v>
+        <v>0.15170914575985442</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="0"/>
-        <v>22550.222222222223</v>
+        <v>19781.111111111109</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="0"/>
-        <v>1040.5555555555557</v>
+        <v>585.22222222222217</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6430216211164138E-2</v>
+        <f>AVERAGE(L2:L10)</f>
+        <v>3.0172846823219548E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -4722,43 +4858,43 @@
       </c>
       <c r="B54" s="3">
         <f>AVERAGE(C11:C19)</f>
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="C54" s="3">
         <f t="shared" ref="C54:K54" si="1">AVERAGE(D11:D19)</f>
-        <v>5885.2222222222226</v>
+        <v>5606.333333333333</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="1"/>
-        <v>0.19686309490624593</v>
+        <v>0.20784211957193344</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="1"/>
-        <v>1641.2222222222222</v>
+        <v>1566.1111111111111</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="1"/>
-        <v>4244</v>
+        <v>4040.2222222222222</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="1"/>
-        <v>0.71504492106189554</v>
+        <v>0.70566840997122926</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="1"/>
-        <v>0.14196353905335357</v>
+        <v>0.14978209469200798</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="1"/>
-        <v>24009.777777777777</v>
+        <v>21367.666666666668</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="1"/>
-        <v>1029.1111111111111</v>
+        <v>595.88888888888891</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="1"/>
-        <v>4.316116218810246E-2</v>
+        <f>AVERAGE(L11:L19)</f>
+        <v>2.8361670992456605E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -4767,43 +4903,43 @@
       </c>
       <c r="B55" s="3">
         <f>AVERAGE(C20:C28)</f>
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="C55" s="3">
         <f t="shared" ref="C55:K55" si="2">AVERAGE(D20:D28)</f>
-        <v>3859.1111111111113</v>
+        <v>3545.8888888888887</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="2"/>
-        <v>0.20120495886919235</v>
+        <v>0.21590993660652064</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="2"/>
-        <v>1059.6666666666667</v>
+        <v>964.66666666666663</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="2"/>
-        <v>2799.4444444444443</v>
+        <v>2581.2222222222222</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="2"/>
-        <v>0.71884124916550152</v>
+        <v>0.71084245535831792</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="2"/>
-        <v>0.14595643610242148</v>
+        <v>0.15717117592536212</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="2"/>
-        <v>15320.888888888889</v>
+        <v>12877.111111111111</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="2"/>
-        <v>674.66666666666663</v>
+        <v>273.55555555555554</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" si="2"/>
-        <v>4.4619356839751934E-2</v>
+        <v>2.1648328712626688E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -4812,43 +4948,43 @@
       </c>
       <c r="B56" s="3">
         <f>AVERAGE(C29:C37)</f>
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" ref="C56:K56" si="3">AVERAGE(D29:D37)</f>
-        <v>4082.2222222222222</v>
+        <v>3824.3333333333335</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="3"/>
-        <v>0.20180049543834211</v>
+        <v>0.21638187921994645</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="3"/>
-        <v>1142</v>
+        <v>1062.4444444444443</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="3"/>
-        <v>2940.2222222222222</v>
+        <v>2761.8888888888887</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="3"/>
-        <v>0.7139055948975721</v>
+        <v>0.70670578296395847</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="3"/>
-        <v>0.14534688922943401</v>
+        <v>0.15626846717714668</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="3"/>
-        <v>16146.777777777777</v>
+        <v>13849.666666666666</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="3"/>
-        <v>642.44444444444446</v>
+        <v>276.11111111111109</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="3"/>
-        <v>4.0487229145384558E-2</v>
+        <f>AVERAGE(L29:L37)</f>
+        <v>2.0540187608334797E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -4857,43 +4993,43 @@
       </c>
       <c r="B57" s="3">
         <f>AVERAGE(C38:C46)</f>
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="C57" s="3">
         <f t="shared" ref="C57:K57" si="4">AVERAGE(D38:D46)</f>
-        <v>2993.2222222222222</v>
+        <v>2721.5555555555557</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="4"/>
-        <v>0.21607032572166485</v>
+        <v>0.23610267680710992</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="4"/>
-        <v>796.88888888888891</v>
+        <v>732.88888888888891</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="4"/>
-        <v>2196.3333333333335</v>
+        <v>1988.6666666666667</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="4"/>
-        <v>0.73285232395081945</v>
+        <v>0.71677130815684276</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="4"/>
-        <v>0.15854568204239747</v>
+        <v>0.17252248344466622</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="4"/>
-        <v>10859.777777777777</v>
+        <v>8805.4444444444453</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="4"/>
-        <v>502.77777777777777</v>
+        <v>166.22222222222223</v>
       </c>
       <c r="K57" s="3">
         <f t="shared" si="4"/>
-        <v>4.7454357892444163E-2</v>
+        <v>1.9507051113284893E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -4950,43 +5086,43 @@
       </c>
       <c r="B60" s="3">
         <f>AVERAGE(C2,C4,C6,C8,C9)</f>
-        <v>28115</v>
+        <v>25045</v>
       </c>
       <c r="C60" s="3">
         <f t="shared" ref="C60:K60" si="5">AVERAGE(D2,D4,D6,D8,D9)</f>
-        <v>6760.2</v>
+        <v>6422.4</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="5"/>
-        <v>0.24044815934554498</v>
+        <v>0.25643441804751438</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="5"/>
-        <v>1866.8</v>
+        <v>1699.4</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="5"/>
-        <v>4893.3999999999996</v>
+        <v>4723</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="5"/>
-        <v>0.72497632396931899</v>
+        <v>0.73741114980614786</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="5"/>
-        <v>0.17404943980081802</v>
+        <v>0.18858055500099818</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="5"/>
-        <v>21354.799999999999</v>
+        <v>18622.599999999999</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="5"/>
-        <v>1241</v>
+        <v>646.79999999999995</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="5"/>
-        <v>5.759378962338256E-2</v>
+        <f>AVERAGE(L2,L4,L6,L8,L9)</f>
+        <v>3.4885669597755076E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -4995,43 +5131,43 @@
       </c>
       <c r="B61" s="3">
         <f>AVERAGE(C11,C13,C15,C17,C18)</f>
-        <v>29895</v>
+        <v>26974</v>
       </c>
       <c r="C61" s="3">
         <f t="shared" ref="C61:K61" si="6">AVERAGE(D11,D13,D15,D17,D18)</f>
-        <v>7124.4</v>
+        <v>6817.2</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="6"/>
-        <v>0.23831409934771716</v>
+        <v>0.25273226069548438</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="6"/>
-        <v>1981.6</v>
+        <v>1828.4</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="6"/>
-        <v>5142.8</v>
+        <v>4988.8</v>
       </c>
       <c r="G61" s="3">
         <f t="shared" si="6"/>
-        <v>0.72300857227709669</v>
+        <v>0.73359519375881876</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="6"/>
-        <v>0.17202876735240039</v>
+        <v>0.18494846889597399</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="6"/>
-        <v>22770.6</v>
+        <v>20156.8</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="6"/>
-        <v>1223.5999999999999</v>
+        <v>654.6</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" si="6"/>
-        <v>5.3349884463610497E-2</v>
+        <v>3.2570750927304701E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -5040,43 +5176,43 @@
       </c>
       <c r="B62" s="3">
         <f>AVERAGE(C20,C22,C24,C26,C27)</f>
-        <v>19180</v>
+        <v>16423</v>
       </c>
       <c r="C62" s="3">
         <f t="shared" ref="C62:K62" si="7">AVERAGE(D20,D22,D24,D26,D27)</f>
-        <v>4829.6000000000004</v>
+        <v>4450.6000000000004</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" si="7"/>
-        <v>0.25180396246089665</v>
+        <v>0.27099799062290703</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" si="7"/>
-        <v>1302.5999999999999</v>
+        <v>1139</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="7"/>
-        <v>3527</v>
+        <v>3311.6</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="7"/>
-        <v>0.7322820902166054</v>
+        <v>0.74756174508399842</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="7"/>
-        <v>0.1838894681960376</v>
+        <v>0.2016440358034462</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="7"/>
-        <v>14350.4</v>
+        <v>11972.4</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="7"/>
-        <v>832.8</v>
+        <v>302.60000000000002</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" si="7"/>
-        <v>5.7687373132809083E-2</v>
+        <v>2.5268171370252002E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -5085,43 +5221,43 @@
       </c>
       <c r="B63" s="3">
         <f>AVERAGE(C29,C31,C33,C35,C36)</f>
-        <v>20229</v>
+        <v>17674</v>
       </c>
       <c r="C63" s="3">
         <f t="shared" ref="C63:K63" si="8">AVERAGE(D29,D31,D33,D35,D36)</f>
-        <v>5081</v>
+        <v>4773.2</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="8"/>
-        <v>0.25117405704681406</v>
+        <v>0.27006902795066201</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="8"/>
-        <v>1395.6</v>
+        <v>1242</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="8"/>
-        <v>3685.4</v>
+        <v>3531.2</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="8"/>
-        <v>0.72749761363245635</v>
+        <v>0.7425498471220946</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="8"/>
-        <v>0.1821839932769786</v>
+        <v>0.19979631096525979</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="8"/>
-        <v>15148</v>
+        <v>12900.8</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="8"/>
-        <v>802.2</v>
+        <v>314.2</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="8"/>
-        <v>5.2883594792401387E-2</v>
+        <f>AVERAGE(L29,L31,L33,L35,L36)</f>
+        <v>2.4664557355387556E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -5130,43 +5266,43 @@
       </c>
       <c r="B64" s="3">
         <f>AVERAGE(C38,C40,C42,C44,C45)</f>
-        <v>13853</v>
+        <v>11527</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" ref="C64:K64" si="9">AVERAGE(D38,D40,D42,D44,D45)</f>
-        <v>3844</v>
+        <v>3491.6</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="9"/>
-        <v>0.27748502129502639</v>
+        <v>0.30290622017871083</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="9"/>
-        <v>996.4</v>
+        <v>864.6</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="9"/>
-        <v>2847.6</v>
+        <v>2627</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="9"/>
-        <v>0.74938012988064384</v>
+        <v>0.76194489715451597</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="9"/>
-        <v>0.2055583628094996</v>
+        <v>0.2278997137156244</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="9"/>
-        <v>10009</v>
+        <v>8035.4</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="9"/>
-        <v>636.79999999999995</v>
+        <v>188.2</v>
       </c>
       <c r="K64" s="3">
         <f t="shared" si="9"/>
-        <v>6.3509768203941913E-2</v>
+        <v>2.3617823617593257E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -5321,4 +5457,331 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDD7D12-6055-4C36-9FD0-480A0EC1536F}">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="A1:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{BFDD7D12-6055-4C36-9FD0-480A0EC1536F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B38">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>